--- a/Planilla de Metricas.xlsx
+++ b/Planilla de Metricas.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\workspace\CURSADA\TP4ColoreoDeGrafos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="19440" windowHeight="10170"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="19440" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="Métricas" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Preparación de la Prueba</t>
   </si>
@@ -116,18 +121,33 @@
   </si>
   <si>
     <t>TOTALES Desarrollo</t>
+  </si>
+  <si>
+    <t>clase matrizSimetrica - constructor</t>
+  </si>
+  <si>
+    <t>setMatrizSimetrica/getMatrizSimetrica</t>
+  </si>
+  <si>
+    <t>clase Grafos - constructores</t>
+  </si>
+  <si>
+    <t>metedo dado N y probabilidad</t>
+  </si>
+  <si>
+    <t>metoso dado N y procentaje // falta terminar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +679,215 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -667,100 +896,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -775,28 +923,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -806,119 +933,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1033,13 +1053,32 @@
       <color rgb="FF33CC33"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1059,51 +1098,87 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-6FFE-4056-A55C-CF8631FE58C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6FFE-4056-A55C-CF8631FE58C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0066FF"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6FFE-4056-A55C-CF8631FE58C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="009900"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6FFE-4056-A55C-CF8631FE58C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6FFE-4056-A55C-CF8631FE58C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="002060"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6FFE-4056-A55C-CF8631FE58C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1138,7 +1213,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.2500000000000888E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1153,12 +1228,26 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.2500000000000111E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6FFE-4056-A55C-CF8631FE58C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
@@ -1174,6 +1263,7 @@
           <c:h val="0.52354412740966338"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1186,6 +1276,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1218,7 +1310,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvPr id="6" name="5 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1279,7 +1377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1311,9 +1409,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1345,6 +1461,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1520,1037 +1654,1133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="32" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" style="32" customWidth="1"/>
-    <col min="12" max="12" width="13" style="32" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="1.140625" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="32" hidden="1"/>
+    <col min="1" max="1" width="1.1796875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="28" customWidth="1"/>
+    <col min="3" max="11" width="11.453125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="13" style="28" customWidth="1"/>
+    <col min="13" max="14" width="11.453125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="1.1796875" style="21" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="28" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B1" s="93" t="s">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-    </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="5.25" customHeight="1" thickBot="1">
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-    </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="87" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+    </row>
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" s="17" customFormat="1" ht="30">
-      <c r="A4" s="16"/>
-      <c r="B4" s="69" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="66" t="str">
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="E5" s="52">
         <f>IFERROR(IF(OR(ISBLANK(C5),ISBLANK(D5)),"Completar",IF(D5&gt;=C5,D5-C5,"Error")),"Error")</f>
-        <v>Completar</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="24"/>
-    </row>
-    <row r="6" spans="1:16" s="27" customFormat="1" ht="6" customHeight="1" thickBot="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="87" t="s">
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" s="17" customFormat="1" ht="30">
-      <c r="A8" s="16"/>
-      <c r="B8" s="69" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="21"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="66" t="str">
+      <c r="E9" s="52" t="str">
         <f>IFERROR(IF(OR(ISBLANK(C9),ISBLANK(D9)),"Completar",IF(D9&gt;=C9,D9-C9,"Error")),"Error")</f>
         <v>Completar</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" ht="6" customHeight="1" thickBot="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="87" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" s="17" customFormat="1" ht="30">
-      <c r="A12" s="16"/>
-      <c r="B12" s="69" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A13" s="21"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="66" t="str">
+      <c r="E13" s="52" t="str">
         <f>IFERROR(IF(OR(ISBLANK(C13),ISBLANK(D13)),"Completar",IF(D13&gt;=C13,D13-C13,"Error")),"Error")</f>
         <v>Completar</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:16" s="27" customFormat="1" ht="6" customHeight="1" thickBot="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="87" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" s="17" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="43" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46" t="s">
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48" t="s">
+      <c r="L16" s="89"/>
+      <c r="M16" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" s="17" customFormat="1" ht="30">
-      <c r="A17" s="16"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="50" t="s">
+      <c r="O16" s="14"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="1:16" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="20"/>
-    </row>
-    <row r="18" spans="1:16" s="25" customFormat="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="55">
+      <c r="M17" s="85"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="44">
         <f>ROW($B18)-16</f>
         <v>2</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="67" t="str">
-        <f>IFERROR(IF(OR(ISBLANK(H18),ISBLANK(I18)),"",IF(I18&gt;=H18,I18-H18,"Error")),"Error")</f>
-        <v/>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="68" t="str">
+      <c r="C18" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="J18" s="53">
+        <f t="shared" ref="J18:J22" si="0">IFERROR(IF(OR(ISBLANK(H18),ISBLANK(I18)),"",IF(I18&gt;=H18,I18-H18,"Error")),"Error")</f>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>4</v>
+      </c>
+      <c r="N18" s="54">
         <f>IFERROR(IF(OR(J18="",ISBLANK(L18)),"",J18+L18),"Error")</f>
-        <v/>
-      </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="1:16" s="25" customFormat="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="55">
-        <f t="shared" ref="B19:B25" si="0">ROW($B19)-16</f>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="44">
+        <f t="shared" ref="B19:B25" si="1">ROW($B19)-16</f>
         <v>3</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="67" t="str">
-        <f t="shared" ref="J19:J23" si="1">IFERROR(IF(OR(ISBLANK(H19),ISBLANK(I19)),"",IF(I19&gt;=H19,I19-H19,"Error")),"Error")</f>
-        <v/>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="68" t="str">
-        <f t="shared" ref="N19:N25" si="2">IFERROR(IF(OR(J19="",ISBLANK(L19)),"",J19+L19),"Error")</f>
-        <v/>
-      </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="1:16" s="25" customFormat="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="55">
+      <c r="C19" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="3">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="J19" s="53">
         <f t="shared" si="0"/>
+        <v>9.0277777777778567E-3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>18</v>
+      </c>
+      <c r="N19" s="54">
+        <f t="shared" ref="N19:N22" si="2">IFERROR(IF(OR(J19="",ISBLANK(L19)),"",J19+L19),"Error")</f>
+        <v>9.0277777777778567E-3</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="44">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="67" t="str">
+      <c r="C20" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="3">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="J20" s="53">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="54">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+      <c r="B21" s="44">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="68" t="str">
+        <v>5</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="3">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="J21" s="53">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="24"/>
-    </row>
-    <row r="21" spans="1:16" s="25" customFormat="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="55">
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" s="23" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
+      <c r="B22" s="44">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="J22" s="53">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="67" t="str">
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="54">
+        <f t="shared" si="2"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+      <c r="B23" s="44">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="24"/>
-    </row>
-    <row r="22" spans="1:16" s="25" customFormat="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="55">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="24"/>
-    </row>
-    <row r="23" spans="1:16" s="25" customFormat="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="55">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="67" t="str">
-        <f t="shared" si="1"/>
+      <c r="J23" s="53" t="str">
+        <f t="shared" ref="J19:J23" si="3">IFERROR(IF(OR(ISBLANK(H23),ISBLANK(I23)),"",IF(I23&gt;=H23,I23-H23,"Error")),"Error")</f>
         <v/>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="68" t="str">
-        <f t="shared" si="2"/>
+      <c r="N23" s="54" t="str">
+        <f t="shared" ref="N19:N25" si="4">IFERROR(IF(OR(J23="",ISBLANK(L23)),"",J23+L23),"Error")</f>
         <v/>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="24"/>
-    </row>
-    <row r="24" spans="1:16" s="25" customFormat="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="55">
-        <f t="shared" si="0"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="44">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="67"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="24"/>
-    </row>
-    <row r="25" spans="1:16" s="25" customFormat="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="55">
-        <f t="shared" si="0"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="44">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="67" t="str">
+      <c r="J25" s="53" t="str">
         <f>IFERROR(IF(OR(ISBLANK(H25),ISBLANK(I25)),"",IF(I25&gt;=H25,I25-H25,"Error")),"Error")</f>
         <v/>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="68" t="str">
-        <f t="shared" si="2"/>
+      <c r="N25" s="54" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="24"/>
-    </row>
-    <row r="26" spans="1:16" s="31" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="56" t="s">
+      <c r="O25" s="19"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59" t="str">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="45">
         <f>IF(SUM(F18:F25)=0,"Completar",SUM(F18:F25))</f>
-        <v>Completar</v>
-      </c>
-      <c r="G26" s="60" t="str">
+        <v>95</v>
+      </c>
+      <c r="G26" s="46">
         <f>IF(SUM(G18:G25)=0,"Completar",SUM(G18:G25))</f>
-        <v>Completar</v>
-      </c>
-      <c r="H26" s="61" t="s">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="H26" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="62" t="s">
+      <c r="I26" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="63" t="str">
+      <c r="J26" s="49">
         <f>IF(OR(COUNTIF(J18:J25,"Error")&gt;0,COUNTIF(J18:J25,"Completar")&gt;0),"Error",IF(SUM(J18:J25)=0,"Completar",SUM(J18:J25)))</f>
-        <v>Completar</v>
-      </c>
-      <c r="K26" s="64">
+        <v>6.2500000000000111E-2</v>
+      </c>
+      <c r="K26" s="50">
         <f>SUM(K18:K25)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="46">
         <f>SUM(L18:L25)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="65" t="str">
+      <c r="M26" s="51">
         <f>IF(SUM(M18:M25)=0,"Completar",SUM(M18:M25))</f>
-        <v>Completar</v>
-      </c>
-      <c r="N26" s="66" t="str">
+        <v>22</v>
+      </c>
+      <c r="N26" s="52">
         <f>IF(OR(COUNTIF(N18:N25,"Error")&gt;0,COUNTIF(N18:N25,"Completar")&gt;0),"Error",IF(SUM(N18:N25)=0,"Completar",SUM(N18:N25)))</f>
-        <v>Completar</v>
-      </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="30"/>
-    </row>
-    <row r="27" spans="1:16" s="26" customFormat="1" ht="6" customHeight="1" thickBot="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="87" t="s">
+        <v>6.2500000000000111E-2</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" spans="1:16" s="24" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:16" s="17" customFormat="1" ht="30">
-      <c r="A29" s="16"/>
-      <c r="B29" s="69" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="20"/>
-    </row>
-    <row r="30" spans="1:16" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A30" s="21"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="18"/>
+    </row>
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="19"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="66" t="str">
+      <c r="E30" s="52" t="str">
         <f>IFERROR(IF(OR(ISBLANK(C30),ISBLANK(D30)),"Completar",IF(D30&gt;=C30,D30-C30,"Error")),"Error")</f>
         <v>Completar</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="24"/>
-    </row>
-    <row r="31" spans="1:16" s="26" customFormat="1" ht="6" customHeight="1" thickBot="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="B32" s="87" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" s="24" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B32" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="89"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
-      <c r="B33" s="71" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="65"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74" t="str">
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="81">
         <f>M26</f>
-        <v>Completar</v>
-      </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="B34" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="82"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B34" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="76" t="str">
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="83">
         <f>IF(M26="Completar","Completar",IFERROR(M26/(N26*24),"Error"))</f>
-        <v>Completar</v>
-      </c>
-      <c r="F34" s="77"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="38"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
-      <c r="B35" s="71" t="s">
+        <v>14.666666666666641</v>
+      </c>
+      <c r="F34" s="84"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74">
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="81">
         <f>IF(K26=0,0,IFERROR(ROUNDUP(K26/(M26/100),0),"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="38"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1">
-      <c r="B36" s="71" t="s">
+      <c r="F35" s="82"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="34"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="78">
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="68">
         <f>IF(K26=0,0,IFERROR(K26/M26,"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="38"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="B37" s="71" t="s">
+      <c r="F36" s="69"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="34"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="80" t="str">
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="57">
         <f>E5</f>
-        <v>Completar</v>
-      </c>
-      <c r="F37" s="81" t="str">
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="F37" s="58">
         <f>IF(E37="Completar",E37,IFERROR(E37/$E$43,"Error"))</f>
-        <v>Completar</v>
-      </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="38"/>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
-      <c r="B38" s="71" t="s">
+        <v>9.0909090909091939E-2</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="34"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="80" t="str">
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="57" t="str">
         <f>E9</f>
         <v>Completar</v>
       </c>
-      <c r="F38" s="81" t="str">
+      <c r="F38" s="58" t="str">
         <f>IF(E38="Completar",E38,IFERROR(E38/$E$43,"Error"))</f>
         <v>Completar</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="38"/>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
-      <c r="B39" s="71" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="34"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="80" t="str">
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="57" t="str">
         <f>E13</f>
         <v>Completar</v>
       </c>
-      <c r="F39" s="81" t="str">
-        <f t="shared" ref="F39" si="3">IF(E39="Completar",E39,IFERROR(E39/$E$43,"Error"))</f>
+      <c r="F39" s="58" t="str">
+        <f t="shared" ref="F39" si="5">IF(E39="Completar",E39,IFERROR(E39/$E$43,"Error"))</f>
         <v>Completar</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="38"/>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="B40" s="71" t="s">
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="34"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="80" t="str">
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="57" t="str">
         <f>E30</f>
         <v>Completar</v>
       </c>
-      <c r="F40" s="81" t="str">
+      <c r="F40" s="58" t="str">
         <f>IF(E40="Completar",E40,IFERROR(E40/$E$43,"Error"))</f>
         <v>Completar</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="38"/>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="B41" s="71" t="s">
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="34"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="80">
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="57">
         <f>L26</f>
         <v>0</v>
       </c>
-      <c r="F41" s="81" t="str">
+      <c r="F41" s="58">
         <f>IF(E41="Completar",E41,IFERROR(E41/$E$43,"Completar"))</f>
-        <v>Completar</v>
-      </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="38"/>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
-      <c r="B42" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="34"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="80" t="str">
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="57">
         <f>J26</f>
-        <v>Completar</v>
-      </c>
-      <c r="F42" s="81" t="str">
+        <v>6.2500000000000111E-2</v>
+      </c>
+      <c r="F42" s="58">
         <f>IF(E42="Completar",E42,IFERROR(E42/$E$43,"Completar"))</f>
-        <v>Completar</v>
-      </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="38"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="82" t="s">
+        <v>0.90909090909090806</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="34"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85" t="str">
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="73">
         <f>IF(COUNTIF(E37:E42,"Error")&gt;0,"Error",IF(SUM(E37:E42)=0,"Completar",SUM(E37:E42)))</f>
-        <v>Completar</v>
-      </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="41"/>
-    </row>
-    <row r="44" spans="1:15" s="42" customFormat="1" ht="6" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="O44" s="23"/>
-    </row>
-    <row r="45" spans="1:15" hidden="1"/>
-    <row r="46" spans="1:15" hidden="1"/>
-    <row r="47" spans="1:15" hidden="1"/>
-    <row r="48" spans="1:15" hidden="1"/>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1"/>
-    <row r="51" hidden="1"/>
-    <row r="52" hidden="1"/>
-    <row r="53" hidden="1"/>
-    <row r="54" hidden="1"/>
-    <row r="55" hidden="1"/>
-    <row r="56" hidden="1"/>
-    <row r="57" hidden="1"/>
-    <row r="58" hidden="1"/>
-    <row r="59" hidden="1"/>
-    <row r="60" hidden="1"/>
-    <row r="61" hidden="1"/>
-    <row r="62" hidden="1"/>
-    <row r="63" hidden="1"/>
-    <row r="64" hidden="1"/>
-    <row r="65" hidden="1"/>
-    <row r="66" hidden="1"/>
-    <row r="67" hidden="1"/>
-    <row r="68" hidden="1"/>
+        <v>6.87500000000002E-2</v>
+      </c>
+      <c r="F43" s="74"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="1:15" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="21"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="44">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:N1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="E43:F43"/>
@@ -2567,35 +2797,35 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B1048576 D1:XFD1048576 C3:C1048576">
+  <conditionalFormatting sqref="A1:B4 D1:XFD4 C3:C4 C23:XFD1048576 O18:XFD22 C6:XFD17 E5:XFD5 A6:B1048576 A5">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"Completar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:N22">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Completar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
